--- a/共有用フォルダー/04_機能一覧_修正後_そばうどん.xlsx
+++ b/共有用フォルダー/04_機能一覧_修正後_そばうどん.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB5B3F1-83E0-4797-8BB4-3788EE928A10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23103D29-75E7-43CB-AED8-4128E8A14A9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,9 +317,6 @@
     <t>WT004</t>
   </si>
   <si>
-    <t>WT005</t>
-  </si>
-  <si>
     <t>WT006</t>
   </si>
   <si>
@@ -642,25 +639,6 @@
     <t>計算機能</t>
     <rPh sb="0" eb="4">
       <t>ケイサンキノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用者が登録・更新した際にBMIを計算する</t>
-    <rPh sb="0" eb="3">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケイサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -900,9 +878,6 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>写真を除いた登録データを他ユーザが閲覧可能</t>
   </si>
   <si>
     <t>詳細閲覧機能</t>
@@ -1047,6 +1022,18 @@
     <rPh sb="96" eb="97">
       <t>ダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WT005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者が登録・更新した際にBMIを計算する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真を除いた登録データを他ユーザが閲覧可能</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1527,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="95" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1550,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="10"/>
     </row>
@@ -1572,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="10"/>
     </row>
@@ -1630,7 +1617,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>34</v>
@@ -1653,11 +1640,11 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>31</v>
@@ -1679,7 +1666,7 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>33</v>
@@ -1703,13 +1690,13 @@
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>31</v>
@@ -1726,11 +1713,11 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>31</v>
@@ -1751,13 +1738,13 @@
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>31</v>
@@ -1778,13 +1765,13 @@
         <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>31</v>
@@ -1801,11 +1788,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>31</v>
@@ -1826,13 +1813,13 @@
         <v>17</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>31</v>
@@ -1849,11 +1836,11 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>31</v>
@@ -1870,11 +1857,11 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>31</v>
@@ -1895,13 +1882,13 @@
         <v>19</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>31</v>
@@ -1922,13 +1909,13 @@
         <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>31</v>
@@ -1945,11 +1932,11 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>31</v>
@@ -1970,13 +1957,13 @@
         <v>25</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>31</v>
@@ -1993,11 +1980,11 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>31</v>
@@ -2014,11 +2001,11 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>31</v>
@@ -2039,13 +2026,13 @@
         <v>26</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>31</v>
@@ -2062,11 +2049,11 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>31</v>
@@ -2083,11 +2070,11 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>31</v>
@@ -2108,13 +2095,13 @@
         <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>31</v>
@@ -2131,11 +2118,11 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -2150,11 +2137,11 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -2173,13 +2160,13 @@
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>31</v>
@@ -2196,11 +2183,11 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2211,17 +2198,17 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>31</v>
@@ -2236,11 +2223,11 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>31</v>

--- a/共有用フォルダー/04_機能一覧_修正後_そばうどん.xlsx
+++ b/共有用フォルダー/04_機能一覧_修正後_そばうどん.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23103D29-75E7-43CB-AED8-4128E8A14A9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F472470-D75B-4EB5-B6AC-8A3AACFFE8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1034,6 +1034,28 @@
   </si>
   <si>
     <t>写真を除いた登録データを他ユーザが閲覧可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝昼晩の食事登録が空欄だった場合エラーメッセージを表示する</t>
+    <rPh sb="0" eb="3">
+      <t>アサヒルバン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1512,23 +1534,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I49"/>
+  <dimension ref="B2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="95" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" customWidth="1"/>
-    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1563,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1554,7 +1576,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +1585,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1572,12 +1594,12 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1603,7 +1625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1629,7 +1651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <f>B8+1</f>
         <v>2</v>
@@ -1650,7 +1672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <f>B9+1</f>
         <v>3</v>
@@ -1675,9 +1697,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
-        <f t="shared" ref="B11:B28" si="0">B10+1</f>
+        <f t="shared" ref="B11:B29" si="0">B10+1</f>
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1702,9 +1724,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
+        <f>B11+1</f>
         <v>5</v>
       </c>
       <c r="C12" s="2"/>
@@ -1723,133 +1745,130 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
+    <row r="13" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
+        <f>B12+1</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
+    <row r="16" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
+    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -1857,47 +1876,41 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
@@ -1906,94 +1919,100 @@
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H21" s="3" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="3" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
@@ -2001,68 +2020,68 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="65" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="81.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="54" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="H26" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -2070,66 +2089,68 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
-        <f>B28+1</f>
-        <v>22</v>
-      </c>
-      <c r="C29" s="2"/>
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
-        <f t="shared" ref="B30:B34" si="1">B29+1</f>
-        <v>23</v>
+        <f>B29+1</f>
+        <v>22</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -2137,113 +2158,122 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="2:9" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="2">
+        <f t="shared" ref="B31:B35" si="1">B30+1</f>
+        <v>23</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" ht="26" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B32" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
+    <row r="33" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2">
+    <row r="35" spans="2:9" ht="101.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H35" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2253,7 +2283,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2263,7 +2293,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2273,7 +2303,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2283,7 +2313,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2293,7 +2323,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2303,7 +2333,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2313,7 +2343,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2323,7 +2353,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2333,7 +2363,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2343,7 +2373,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2353,7 +2383,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2363,7 +2393,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2373,7 +2403,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2382,6 +2412,16 @@
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
       <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/共有用フォルダー/04_機能一覧_修正後_そばうどん.xlsx
+++ b/共有用フォルダー/04_機能一覧_修正後_そばうどん.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\共有用フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F472470-D75B-4EB5-B6AC-8A3AACFFE8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80488AD-9F9F-4CDE-AF22-D0A5FAC8AA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="116">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1025,10 +1025,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WT005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>利用者が登録・更新した際にBMIを計算する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1056,6 +1052,59 @@
     <rPh sb="25" eb="27">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WT005</t>
+  </si>
+  <si>
+    <t>WT008</t>
+  </si>
+  <si>
+    <t>WT007</t>
+  </si>
+  <si>
+    <t>WT009</t>
+  </si>
+  <si>
+    <t>WT010</t>
+  </si>
+  <si>
+    <t>WT011</t>
+  </si>
+  <si>
+    <t>WT012</t>
+  </si>
+  <si>
+    <t>WK005</t>
+  </si>
+  <si>
+    <t>WK006</t>
+  </si>
+  <si>
+    <t>WK007</t>
+  </si>
+  <si>
+    <t>WK008</t>
+  </si>
+  <si>
+    <t>WK009</t>
+  </si>
+  <si>
+    <t>WS003</t>
+  </si>
+  <si>
+    <t>WS004</t>
+  </si>
+  <si>
+    <t>WS005</t>
+  </si>
+  <si>
+    <t>WD001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WD002</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1214,9 +1263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1254,9 +1303,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1289,26 +1338,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1341,26 +1373,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1536,21 +1551,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="95" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="3" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1578,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1576,7 +1591,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1585,7 +1600,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1594,12 +1609,12 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1651,12 +1666,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="26.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <f>B8+1</f>
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1664,7 +1681,9 @@
       <c r="F9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>92</v>
       </c>
@@ -1672,7 +1691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <f>B9+1</f>
         <v>3</v>
@@ -1688,7 +1707,7 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>33</v>
@@ -1697,7 +1716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <f t="shared" ref="B11:B29" si="0">B10+1</f>
         <v>4</v>
@@ -1715,7 +1734,7 @@
         <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>48</v>
@@ -1724,12 +1743,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <f>B11+1</f>
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1737,7 +1758,9 @@
       <c r="F12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>50</v>
       </c>
@@ -1745,9 +1768,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1755,15 +1780,17 @@
       <c r="F13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="H13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <f>B12+1</f>
         <v>6</v>
@@ -1781,7 +1808,7 @@
         <v>55</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>49</v>
@@ -1790,7 +1817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1808,7 +1835,7 @@
         <v>56</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>63</v>
@@ -1817,12 +1844,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1830,7 +1859,9 @@
       <c r="F16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="H16" s="3" t="s">
         <v>61</v>
       </c>
@@ -1838,7 +1869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1856,7 +1887,7 @@
         <v>57</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>64</v>
@@ -1865,12 +1896,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1878,7 +1911,9 @@
       <c r="F18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="H18" s="3" t="s">
         <v>62</v>
       </c>
@@ -1886,12 +1921,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1899,7 +1936,9 @@
       <c r="F19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="H19" s="3" t="s">
         <v>59</v>
       </c>
@@ -1907,7 +1946,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1934,7 +1973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1961,12 +2000,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
@@ -1974,15 +2015,17 @@
       <c r="F22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2000,7 +2043,7 @@
         <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>73</v>
@@ -2009,12 +2052,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
@@ -2022,7 +2067,9 @@
       <c r="F24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="H24" s="3" t="s">
         <v>74</v>
       </c>
@@ -2030,12 +2077,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
@@ -2043,7 +2092,9 @@
       <c r="F25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="H25" s="3" t="s">
         <v>77</v>
       </c>
@@ -2051,7 +2102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" ht="65" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2069,7 +2120,7 @@
         <v>68</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>80</v>
@@ -2078,12 +2129,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
       </c>
@@ -2091,7 +2144,9 @@
       <c r="F27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="H27" s="3" t="s">
         <v>78</v>
       </c>
@@ -2099,12 +2154,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
@@ -2112,7 +2169,9 @@
       <c r="F28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="H28" s="3" t="s">
         <v>81</v>
       </c>
@@ -2120,7 +2179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2147,12 +2206,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="27.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <f>B29+1</f>
         <v>22</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>27</v>
       </c>
@@ -2160,18 +2221,22 @@
       <c r="F30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="H30" s="9" t="s">
         <v>86</v>
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <f t="shared" ref="B31:B35" si="1">B30+1</f>
         <v>23</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D31" s="2" t="s">
         <v>27</v>
       </c>
@@ -2179,13 +2244,15 @@
       <c r="F31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="H31" s="9" t="s">
         <v>87</v>
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2203,7 +2270,7 @@
         <v>84</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>89</v>
@@ -2212,12 +2279,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>27</v>
       </c>
@@ -2225,18 +2294,22 @@
       <c r="F33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="H33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>90</v>
       </c>
@@ -2246,7 +2319,9 @@
       <c r="F34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="H34" s="3" t="s">
         <v>94</v>
       </c>
@@ -2254,18 +2329,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="101.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="H35" s="3" t="s">
         <v>95</v>
       </c>
@@ -2273,7 +2354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2283,7 +2364,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2293,7 +2374,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2303,7 +2384,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2313,7 +2394,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2323,7 +2404,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2333,7 +2414,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2343,7 +2424,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2353,7 +2434,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2363,7 +2444,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2373,7 +2454,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2383,7 +2464,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2393,7 +2474,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2403,7 +2484,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2413,7 +2494,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
